--- a/week-1/Solutions/1-2-B-deeper-formulas-functions-solutions.xlsx
+++ b/week-1/Solutions/1-2-B-deeper-formulas-functions-solutions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0E9207-3917-4ABE-BA8B-5872657A0E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-38510" yWindow="-2540" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -19,6 +20,7 @@
     <sheet name="taxation-amount" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="raincoat" sheetId="6" r:id="rId6"/>
     <sheet name="taxation" sheetId="7" r:id="rId7"/>
+    <sheet name="iris" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'housing-solution'!$A$1:$L$547</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="43">
   <si>
     <t>Link to checkpoint:</t>
   </si>
@@ -154,11 +156,26 @@
   <si>
     <t>Sales amount</t>
   </si>
+  <si>
+    <t>virginica</t>
+  </si>
+  <si>
+    <t>versicolor</t>
+  </si>
+  <si>
+    <t>setosa</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Sepal.Length</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -612,7 +629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -633,14 +650,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1764,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L547"/>
   <sheetViews>
@@ -22561,7 +22578,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L547">
+  <autoFilter ref="A1:L547" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="7">
       <filters>
         <filter val="yes"/>
@@ -22578,7 +22595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22692,7 +22709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22773,7 +22790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22922,7 +22939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23048,4 +23065,101 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D006AD-0F6A-4746-A2DB-1304135D1C21}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6.9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6.4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6.3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>